--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1946.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1946.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9256336294225512</v>
+        <v>0.3439717292785645</v>
       </c>
       <c r="B1">
-        <v>1.550725465432944</v>
+        <v>0.4329738914966583</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.6292267441749573</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.490821123123169</v>
       </c>
       <c r="E1">
-        <v>1.478131690281042</v>
+        <v>5.614772319793701</v>
       </c>
     </row>
   </sheetData>
